--- a/biology/Botanique/Tonnellerie_François_Frères/Tonnellerie_François_Frères.xlsx
+++ b/biology/Botanique/Tonnellerie_François_Frères/Tonnellerie_François_Frères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tonnellerie_Fran%C3%A7ois_Fr%C3%A8res</t>
+          <t>Tonnellerie_François_Frères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tonnelleries François Frères est une entreprise spécialisée dans la conception, la production et la commercialisation de fûts en chêne destinés principalement à la production de vins haut de gamme. Elle est cotée à la Bourse de Paris. La société dispose d'une quinzaine de sites dans le monde.
-C'est le leader mondial du secteur[2].
-Une diversification vers le marché du Bourbon est opérée avec l'ouverture d'une seconde usine de fûts à Bourbon et une cinquième merranderie en 2020[3]. 
+C'est le leader mondial du secteur.
+Une diversification vers le marché du Bourbon est opérée avec l'ouverture d'une seconde usine de fûts à Bourbon et une cinquième merranderie en 2020. 
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tonnellerie_Fran%C3%A7ois_Fr%C3%A8res</t>
+          <t>Tonnellerie_François_Frères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mise à jour à fin 2018[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mise à jour à fin 2018.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tonnellerie_Fran%C3%A7ois_Fr%C3%A8res</t>
+          <t>Tonnellerie_François_Frères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Dates clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1910 : Création de la tonnellerie.
 1942 : Création de la société Tonnellerie François Frères.
